--- a/LFA.BusinessServices/bin/Release/Reports/BulkUploadFormat/BulkUploadAutomobile.xlsx
+++ b/LFA.BusinessServices/bin/Release/Reports/BulkUploadFormat/BulkUploadAutomobile.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LFA\Source\Total Administration System\TAS\LFA.BusinessServices\Reports\BulkUploadFormat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TFS\TAS-V3\LFA.BusinessServices\Reports\BulkUploadFormat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754B4E10-E1AD-4BCF-92B1-3415DF1F5D05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="472"/>
   </bookViews>
   <sheets>
     <sheet name="Automobile - Policy Bulk Upload" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>First Name</t>
   </si>
@@ -372,11 +371,20 @@
   <si>
     <t>Contract</t>
   </si>
+  <si>
+    <t>Coparate Country</t>
+  </si>
+  <si>
+    <t>Coparate City</t>
+  </si>
+  <si>
+    <t>Coparate Email Address</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -656,7 +664,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,7 +699,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,92 +883,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.88671875" customWidth="1"/>
+    <col min="31" max="31" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="8" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="11" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.7109375" customWidth="1"/>
-    <col min="64" max="64" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.6640625" customWidth="1"/>
+    <col min="64" max="64" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="10" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="29" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>73</v>
       </c>
@@ -1039,7 +1047,7 @@
       <c r="BV1" s="18"/>
       <c r="BW1" s="18"/>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>62</v>
       </c>
@@ -1126,7 +1134,7 @@
       <c r="BX2" s="29"/>
       <c r="BY2" s="29"/>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -1136,7 +1144,7 @@
       <c r="C3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1212,13 +1220,13 @@
         <v>61</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="AF3" s="9" t="s">
         <v>0</v>
@@ -1359,7 +1367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1435,7 +1443,7 @@
       <c r="BV4" s="16"/>
       <c r="BW4" s="3"/>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1511,7 +1519,7 @@
       <c r="BV5" s="16"/>
       <c r="BW5" s="3"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
